--- a/Output/PBL/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/PBL/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Cust" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -136,15 +138,50 @@
   </si>
   <si>
     <t xml:space="preserve">Other FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubCustomer.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Army</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other DoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -180,10 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1969,4 +2008,1583 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>5292234</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>6687010</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>3275466</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="n">
+        <v>1249518.5327</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>40417.0313</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>77808.617</v>
+      </c>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3" t="n">
+        <v>18010</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>7038331</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>18661124.5</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>49920995.43</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>20264497.4825</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>21812562.2308</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>20851056.42</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>31413230.3708</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>38723318.8561</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>36894812.2216</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>46123546.9223</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>126977012.0851</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>58176328.5905</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>41571.59</v>
+      </c>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="n">
+        <v>25672</v>
+      </c>
+      <c r="R3" s="3" t="n">
+        <v>3318414</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>2993766</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>4380683</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1510821.7849</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>549626.1211</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>415846.7207</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>438978.74</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>89057.1</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>19048173.82</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>685487.85</v>
+      </c>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3" t="n">
+        <v>-2486.41</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>-669.81</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>25408756</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>-62125.37</v>
+      </c>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="n">
+        <v>438.12</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>6510.76</v>
+      </c>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="n">
+        <v>29441786</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>82184621.58</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>90155095.08</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>84580926.3874</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>80205553.2017</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>64254493.6328</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>59663864.95</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>58204513.79</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>41031834.9077</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>30782397.275</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>40914089.7891</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>28943085.63</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>70311402.6523</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>47801004.5781</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>60559185.65</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>52124168.1484</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>53015843.2763</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>83942904.27</v>
+      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3" t="str">
+        <f>Sum(AJ2:AJ4)</f>
+      </c>
+      <c r="AK5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>8686607.55701442</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>10805974.4632533</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>5193351.53094354</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3" t="n">
+        <v>1769064.33916959</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>56058.4820906056</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>106828.229352684</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="n">
+        <v>24032.364466625</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>9224490.71826521</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>24021548.7391752</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>63109526.8460735</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>25355547.4338633</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>27076057.2773294</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>25452884.5767835</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>37513334.279545</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>45403472.6222932</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>42701713.5415081</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>51606795.3510257</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>132785777.99554</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>58176328.5905</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>40490.2576646899</v>
+      </c>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="n">
+        <v>39733.4986704183</v>
+      </c>
+      <c r="R10" s="3" t="n">
+        <v>4698199.91970507</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>4152357.86242578</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>6014508.75608549</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>2056489.91096283</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>733415.617026794</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>545011.909118536</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>565075.764773538</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>112584.9233348</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>23833646.7626977</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>850899.958158317</v>
+      </c>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3" t="n">
+        <v>-2969.24348069294</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>-785.358819840606</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>29407858.5802604</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>-69510.9433170383</v>
+      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3" t="n">
+        <v>438.12</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>6341.40647478137</v>
+      </c>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3" t="n">
+        <v>41683586.3822819</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>113990191.48063</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>123779467.44021</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>115129278.326557</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>107025490.660219</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>84212433.3343509</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>76802362.0368638</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>73581451.9312492</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>51340263.2954056</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>38210364.4190195</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>49943829.4151486</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>34563514.5925311</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>82440811.8844866</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>55324439.442338</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>67758568.2152581</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>54508671.3437307</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>53015843.2763</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>81759437.7076916</v>
+      </c>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="n">
+        <v>1249518.5327</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>40417.0313</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>78850.617</v>
+      </c>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4" t="n">
+        <v>5599621</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>10534367.61</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>8227089.89</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>9198160.125</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>8767072.92</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>9047353.9099</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>10631684</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>478618.23</v>
+      </c>
+      <c r="AG2" s="4" t="n">
+        <v>10747436.27</v>
+      </c>
+      <c r="AH2" s="4" t="n">
+        <v>3476985</v>
+      </c>
+      <c r="AI2" s="4" t="n">
+        <v>2313314</v>
+      </c>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
+        <v>25672</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>32760200</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>85178387.58</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>94535778.08</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>86091748.1723</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>80755179.3228</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>64670340.3535</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>65982848.19</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>86073553.71</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>68255362.3202</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>41343517.2308</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>52997371.7891</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>52408325.9536</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>44326248.8484</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>62148041.5497</v>
+      </c>
+      <c r="AG3" s="4" t="n">
+        <v>45986622.2223</v>
+      </c>
+      <c r="AH3" s="4" t="n">
+        <v>127116454.6789</v>
+      </c>
+      <c r="AI3" s="4" t="n">
+        <v>58087787.5205</v>
+      </c>
+      <c r="AJ3" s="4" t="n">
+        <v>-106134.38</v>
+      </c>
+      <c r="AK3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="B4" t="str">
+        <f>N4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4" t="n">
+        <v>54260528</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>48204820</v>
+      </c>
+      <c r="AG4" s="4" t="n">
+        <v>50970156</v>
+      </c>
+      <c r="AH4" s="4" t="n">
+        <v>48680001</v>
+      </c>
+      <c r="AI4" s="4" t="n">
+        <v>50617666</v>
+      </c>
+      <c r="AJ4" s="4" t="n">
+        <v>84097121</v>
+      </c>
+      <c r="AK4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="B5" t="str">
+        <f>N5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5292234</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6687010</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3275466</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="n">
+        <v>18010</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>7038331</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>7181499</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>11606645</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3862054</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2738770</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>701.5</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4" t="n">
+        <v>42749</v>
+      </c>
+      <c r="AI5" s="4" t="n">
+        <v>262821.6563</v>
+      </c>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="n">
+        <v>-1042</v>
+      </c>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4" t="n">
+        <v>-1101850.2727</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>-184409.15</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>-726906.98</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>-1083607.29</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>-215009.4454</v>
+      </c>
+      <c r="AI6" s="4" t="n">
+        <v>-88979.19</v>
+      </c>
+      <c r="AJ6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>Sum(O2:O6)</f>
+      </c>
+      <c r="P7" s="4" t="str">
+        <f>Sum(P2:P6)</f>
+      </c>
+      <c r="Q7" s="4" t="str">
+        <f>Sum(Q2:Q6)</f>
+      </c>
+      <c r="R7" s="4" t="str">
+        <f>Sum(R2:R6)</f>
+      </c>
+      <c r="S7" s="4" t="str">
+        <f>Sum(S2:S6)</f>
+      </c>
+      <c r="T7" s="4" t="str">
+        <f>Sum(T2:T6)</f>
+      </c>
+      <c r="U7" s="4" t="str">
+        <f>Sum(U2:U6)</f>
+      </c>
+      <c r="V7" s="4" t="str">
+        <f>Sum(V2:V6)</f>
+      </c>
+      <c r="W7" s="4" t="str">
+        <f>Sum(W2:W6)</f>
+      </c>
+      <c r="X7" s="4" t="str">
+        <f>Sum(X2:X6)</f>
+      </c>
+      <c r="Y7" s="4" t="str">
+        <f>Sum(Y2:Y6)</f>
+      </c>
+      <c r="Z7" s="4" t="str">
+        <f>Sum(Z2:Z6)</f>
+      </c>
+      <c r="AA7" s="4" t="str">
+        <f>Sum(AA2:AA6)</f>
+      </c>
+      <c r="AB7" s="4" t="str">
+        <f>Sum(AB2:AB6)</f>
+      </c>
+      <c r="AC7" s="4" t="str">
+        <f>Sum(AC2:AC6)</f>
+      </c>
+      <c r="AD7" s="4" t="str">
+        <f>Sum(AD2:AD6)</f>
+      </c>
+      <c r="AE7" s="4" t="str">
+        <f>Sum(AE2:AE6)</f>
+      </c>
+      <c r="AF7" s="4" t="str">
+        <f>Sum(AF2:AF6)</f>
+      </c>
+      <c r="AG7" s="4" t="str">
+        <f>Sum(AG2:AG6)</f>
+      </c>
+      <c r="AH7" s="4" t="str">
+        <f>Sum(AH2:AH6)</f>
+      </c>
+      <c r="AI7" s="4" t="str">
+        <f>Sum(AI2:AI6)</f>
+      </c>
+      <c r="AJ7" s="4" t="str">
+        <f>Sum(AJ2:AJ6)</f>
+      </c>
+      <c r="AK7" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="B10" t="str">
+        <f>N10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="B11" t="str">
+        <f>N11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="n">
+        <v>1769064.33916959</v>
+      </c>
+      <c r="T11" s="4" t="n">
+        <v>56058.4820906056</v>
+      </c>
+      <c r="U11" s="4" t="n">
+        <v>108258.855153236</v>
+      </c>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4" t="n">
+        <v>7208117.00133123</v>
+      </c>
+      <c r="Z11" s="4" t="n">
+        <v>13317421.853535</v>
+      </c>
+      <c r="AA11" s="4" t="n">
+        <v>10293981.784088</v>
+      </c>
+      <c r="AB11" s="4" t="n">
+        <v>11417728.3601686</v>
+      </c>
+      <c r="AC11" s="4" t="n">
+        <v>10701965.9154998</v>
+      </c>
+      <c r="AD11" s="4" t="n">
+        <v>10804250.5517965</v>
+      </c>
+      <c r="AE11" s="4" t="n">
+        <v>12465754.167836</v>
+      </c>
+      <c r="AF11" s="4" t="n">
+        <v>553948.301198789</v>
+      </c>
+      <c r="AG11" s="4" t="n">
+        <v>12025110.4076716</v>
+      </c>
+      <c r="AH11" s="4" t="n">
+        <v>3636045.22363776</v>
+      </c>
+      <c r="AI11" s="4" t="n">
+        <v>2313314</v>
+      </c>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="B12" t="str">
+        <f>N12</f>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4" t="n">
+        <v>39733.4986704183</v>
+      </c>
+      <c r="S12" s="4" t="n">
+        <v>46381786.301987</v>
+      </c>
+      <c r="T12" s="4" t="n">
+        <v>118142549.343056</v>
+      </c>
+      <c r="U12" s="4" t="n">
+        <v>129793976.196295</v>
+      </c>
+      <c r="V12" s="4" t="n">
+        <v>117185768.23752</v>
+      </c>
+      <c r="W12" s="4" t="n">
+        <v>107758906.277245</v>
+      </c>
+      <c r="X12" s="4" t="n">
+        <v>84757445.2434694</v>
+      </c>
+      <c r="Y12" s="4" t="n">
+        <v>84936478.7071476</v>
+      </c>
+      <c r="Z12" s="4" t="n">
+        <v>108813159.709828</v>
+      </c>
+      <c r="AA12" s="4" t="n">
+        <v>85403157.8340351</v>
+      </c>
+      <c r="AB12" s="4" t="n">
+        <v>51319942.5515789</v>
+      </c>
+      <c r="AC12" s="4" t="n">
+        <v>64693891.7553821</v>
+      </c>
+      <c r="AD12" s="4" t="n">
+        <v>62585446.5561825</v>
+      </c>
+      <c r="AE12" s="4" t="n">
+        <v>51972963.2038047</v>
+      </c>
+      <c r="AF12" s="4" t="n">
+        <v>71929566.9939025</v>
+      </c>
+      <c r="AG12" s="4" t="n">
+        <v>51453592.8017225</v>
+      </c>
+      <c r="AH12" s="4" t="n">
+        <v>132931599.613165</v>
+      </c>
+      <c r="AI12" s="4" t="n">
+        <v>58087787.5205</v>
+      </c>
+      <c r="AJ12" s="4" t="n">
+        <v>-103373.683645059</v>
+      </c>
+      <c r="AK12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <f>M13</f>
+      </c>
+      <c r="B13" t="str">
+        <f>N13</f>
+      </c>
+      <c r="M13" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4" t="n">
+        <v>63621003.3203568</v>
+      </c>
+      <c r="AF13" s="4" t="n">
+        <v>55791811.6670846</v>
+      </c>
+      <c r="AG13" s="4" t="n">
+        <v>57029577.8451959</v>
+      </c>
+      <c r="AH13" s="4" t="n">
+        <v>50906945.2766496</v>
+      </c>
+      <c r="AI13" s="4" t="n">
+        <v>50617666</v>
+      </c>
+      <c r="AJ13" s="4" t="n">
+        <v>81909643.0554762</v>
+      </c>
+      <c r="AK13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <f>M14</f>
+      </c>
+      <c r="B14" t="str">
+        <f>N14</f>
+      </c>
+      <c r="M14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" t="s">
+        <v>51</v>
+      </c>
+      <c r="O14" s="4" t="n">
+        <v>8686607.55701442</v>
+      </c>
+      <c r="P14" s="4" t="n">
+        <v>10805974.4632533</v>
+      </c>
+      <c r="Q14" s="4" t="n">
+        <v>5193351.53094354</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="n">
+        <v>24032.364466625</v>
+      </c>
+      <c r="X14" s="4" t="n">
+        <v>9224490.71826521</v>
+      </c>
+      <c r="Y14" s="4" t="n">
+        <v>9244390.8323337</v>
+      </c>
+      <c r="Z14" s="4" t="n">
+        <v>14672982.1372944</v>
+      </c>
+      <c r="AA14" s="4" t="n">
+        <v>4832317.8738435</v>
+      </c>
+      <c r="AB14" s="4" t="n">
+        <v>3399650.7427597</v>
+      </c>
+      <c r="AC14" s="4" t="n">
+        <v>856.321050164499</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4" t="n">
+        <v>44704.6211776268</v>
+      </c>
+      <c r="AI14" s="4" t="n">
+        <v>262821.6563</v>
+      </c>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <f>M15</f>
+      </c>
+      <c r="B15" t="str">
+        <f>N15</f>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4" t="n">
+        <v>-1430.62580055235</v>
+      </c>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4" t="n">
+        <v>-1315817.47938362</v>
+      </c>
+      <c r="AE15" s="4" t="n">
+        <v>-216221.544037577</v>
+      </c>
+      <c r="AF15" s="4" t="n">
+        <v>-841315.398079471</v>
+      </c>
+      <c r="AG15" s="4" t="n">
+        <v>-1212428.43162334</v>
+      </c>
+      <c r="AH15" s="4" t="n">
+        <v>-224845.395359392</v>
+      </c>
+      <c r="AI15" s="4" t="n">
+        <v>-88979.19</v>
+      </c>
+      <c r="AJ15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <f>M16</f>
+      </c>
+      <c r="B16" t="str">
+        <f>N16</f>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/PBL/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -177,11 +177,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="5">
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -217,12 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2798,57 +2800,57 @@
       <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="n">
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5" t="n">
         <v>1249518.5327</v>
       </c>
-      <c r="T2" s="4" t="n">
+      <c r="T2" s="5" t="n">
         <v>40417.0313</v>
       </c>
-      <c r="U2" s="4" t="n">
+      <c r="U2" s="5" t="n">
         <v>78850.617</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="n">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5" t="n">
         <v>5599621</v>
       </c>
-      <c r="Z2" s="4" t="n">
+      <c r="Z2" s="5" t="n">
         <v>10534367.61</v>
       </c>
-      <c r="AA2" s="4" t="n">
+      <c r="AA2" s="5" t="n">
         <v>8227089.89</v>
       </c>
-      <c r="AB2" s="4" t="n">
+      <c r="AB2" s="5" t="n">
         <v>9198160.125</v>
       </c>
-      <c r="AC2" s="4" t="n">
+      <c r="AC2" s="5" t="n">
         <v>8767072.92</v>
       </c>
-      <c r="AD2" s="4" t="n">
+      <c r="AD2" s="5" t="n">
         <v>9047353.9099</v>
       </c>
-      <c r="AE2" s="4" t="n">
+      <c r="AE2" s="5" t="n">
         <v>10631684</v>
       </c>
-      <c r="AF2" s="4" t="n">
+      <c r="AF2" s="5" t="n">
         <v>478618.23</v>
       </c>
-      <c r="AG2" s="4" t="n">
+      <c r="AG2" s="5" t="n">
         <v>10747436.27</v>
       </c>
-      <c r="AH2" s="4" t="n">
+      <c r="AH2" s="5" t="n">
         <v>3476985</v>
       </c>
-      <c r="AI2" s="4" t="n">
+      <c r="AI2" s="5" t="n">
         <v>2313314</v>
       </c>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2863,67 +2865,67 @@
       <c r="N3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="n">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5" t="n">
         <v>25672</v>
       </c>
-      <c r="S3" s="4" t="n">
+      <c r="S3" s="5" t="n">
         <v>32760200</v>
       </c>
-      <c r="T3" s="4" t="n">
+      <c r="T3" s="5" t="n">
         <v>85178387.58</v>
       </c>
-      <c r="U3" s="4" t="n">
+      <c r="U3" s="5" t="n">
         <v>94535778.08</v>
       </c>
-      <c r="V3" s="4" t="n">
+      <c r="V3" s="5" t="n">
         <v>86091748.1723</v>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W3" s="5" t="n">
         <v>80755179.3228</v>
       </c>
-      <c r="X3" s="4" t="n">
+      <c r="X3" s="5" t="n">
         <v>64670340.3535</v>
       </c>
-      <c r="Y3" s="4" t="n">
+      <c r="Y3" s="5" t="n">
         <v>65982848.19</v>
       </c>
-      <c r="Z3" s="4" t="n">
+      <c r="Z3" s="5" t="n">
         <v>86073553.71</v>
       </c>
-      <c r="AA3" s="4" t="n">
+      <c r="AA3" s="5" t="n">
         <v>68255362.3202</v>
       </c>
-      <c r="AB3" s="4" t="n">
+      <c r="AB3" s="5" t="n">
         <v>41343517.2308</v>
       </c>
-      <c r="AC3" s="4" t="n">
+      <c r="AC3" s="5" t="n">
         <v>52997371.7891</v>
       </c>
-      <c r="AD3" s="4" t="n">
+      <c r="AD3" s="5" t="n">
         <v>52408325.9536</v>
       </c>
-      <c r="AE3" s="4" t="n">
+      <c r="AE3" s="5" t="n">
         <v>44326248.8484</v>
       </c>
-      <c r="AF3" s="4" t="n">
+      <c r="AF3" s="5" t="n">
         <v>62148041.5497</v>
       </c>
-      <c r="AG3" s="4" t="n">
+      <c r="AG3" s="5" t="n">
         <v>45986622.2223</v>
       </c>
-      <c r="AH3" s="4" t="n">
+      <c r="AH3" s="5" t="n">
         <v>127116454.6789</v>
       </c>
-      <c r="AI3" s="4" t="n">
+      <c r="AI3" s="5" t="n">
         <v>58087787.5205</v>
       </c>
-      <c r="AJ3" s="4" t="n">
+      <c r="AJ3" s="5" t="n">
         <v>-106134.38</v>
       </c>
-      <c r="AK3" s="4"/>
+      <c r="AK3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2938,41 +2940,41 @@
       <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4" t="n">
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5" t="n">
         <v>54260528</v>
       </c>
-      <c r="AF4" s="4" t="n">
+      <c r="AF4" s="5" t="n">
         <v>48204820</v>
       </c>
-      <c r="AG4" s="4" t="n">
+      <c r="AG4" s="5" t="n">
         <v>50970156</v>
       </c>
-      <c r="AH4" s="4" t="n">
+      <c r="AH4" s="5" t="n">
         <v>48680001</v>
       </c>
-      <c r="AI4" s="4" t="n">
+      <c r="AI4" s="5" t="n">
         <v>50617666</v>
       </c>
-      <c r="AJ4" s="4" t="n">
+      <c r="AJ4" s="5" t="n">
         <v>84097121</v>
       </c>
-      <c r="AK4" s="4"/>
+      <c r="AK4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2987,53 +2989,53 @@
       <c r="N5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="4" t="n">
+      <c r="O5" s="5" t="n">
         <v>5292234</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="5" t="n">
         <v>6687010</v>
       </c>
-      <c r="Q5" s="4" t="n">
+      <c r="Q5" s="5" t="n">
         <v>3275466</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4" t="n">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5" t="n">
         <v>18010</v>
       </c>
-      <c r="X5" s="4" t="n">
+      <c r="X5" s="5" t="n">
         <v>7038331</v>
       </c>
-      <c r="Y5" s="4" t="n">
+      <c r="Y5" s="5" t="n">
         <v>7181499</v>
       </c>
-      <c r="Z5" s="4" t="n">
+      <c r="Z5" s="5" t="n">
         <v>11606645</v>
       </c>
-      <c r="AA5" s="4" t="n">
+      <c r="AA5" s="5" t="n">
         <v>3862054</v>
       </c>
-      <c r="AB5" s="4" t="n">
+      <c r="AB5" s="5" t="n">
         <v>2738770</v>
       </c>
-      <c r="AC5" s="4" t="n">
+      <c r="AC5" s="5" t="n">
         <v>701.5</v>
       </c>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4" t="n">
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5" t="n">
         <v>42749</v>
       </c>
-      <c r="AI5" s="4" t="n">
+      <c r="AI5" s="5" t="n">
         <v>262821.6563</v>
       </c>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -3048,45 +3050,45 @@
       <c r="N6" t="s">
         <v>50</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4" t="n">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5" t="n">
         <v>-1042</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4" t="n">
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5" t="n">
         <v>-1101850.2727</v>
       </c>
-      <c r="AE6" s="4" t="n">
+      <c r="AE6" s="5" t="n">
         <v>-184409.15</v>
       </c>
-      <c r="AF6" s="4" t="n">
+      <c r="AF6" s="5" t="n">
         <v>-726906.98</v>
       </c>
-      <c r="AG6" s="4" t="n">
+      <c r="AG6" s="5" t="n">
         <v>-1083607.29</v>
       </c>
-      <c r="AH6" s="4" t="n">
+      <c r="AH6" s="5" t="n">
         <v>-215009.4454</v>
       </c>
-      <c r="AI6" s="4" t="n">
+      <c r="AI6" s="5" t="n">
         <v>-88979.19</v>
       </c>
-      <c r="AJ6" s="4" t="n">
+      <c r="AJ6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AK6" s="4"/>
+      <c r="AK6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -3101,73 +3103,73 @@
       <c r="N7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="4" t="str">
+      <c r="O7" s="5" t="str">
         <f>Sum(O2:O6)</f>
       </c>
-      <c r="P7" s="4" t="str">
+      <c r="P7" s="5" t="str">
         <f>Sum(P2:P6)</f>
       </c>
-      <c r="Q7" s="4" t="str">
+      <c r="Q7" s="5" t="str">
         <f>Sum(Q2:Q6)</f>
       </c>
-      <c r="R7" s="4" t="str">
+      <c r="R7" s="5" t="str">
         <f>Sum(R2:R6)</f>
       </c>
-      <c r="S7" s="4" t="str">
+      <c r="S7" s="5" t="str">
         <f>Sum(S2:S6)</f>
       </c>
-      <c r="T7" s="4" t="str">
+      <c r="T7" s="5" t="str">
         <f>Sum(T2:T6)</f>
       </c>
-      <c r="U7" s="4" t="str">
+      <c r="U7" s="5" t="str">
         <f>Sum(U2:U6)</f>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="5" t="str">
         <f>Sum(V2:V6)</f>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="5" t="str">
         <f>Sum(W2:W6)</f>
       </c>
-      <c r="X7" s="4" t="str">
+      <c r="X7" s="5" t="str">
         <f>Sum(X2:X6)</f>
       </c>
-      <c r="Y7" s="4" t="str">
+      <c r="Y7" s="5" t="str">
         <f>Sum(Y2:Y6)</f>
       </c>
-      <c r="Z7" s="4" t="str">
+      <c r="Z7" s="5" t="str">
         <f>Sum(Z2:Z6)</f>
       </c>
-      <c r="AA7" s="4" t="str">
+      <c r="AA7" s="5" t="str">
         <f>Sum(AA2:AA6)</f>
       </c>
-      <c r="AB7" s="4" t="str">
+      <c r="AB7" s="5" t="str">
         <f>Sum(AB2:AB6)</f>
       </c>
-      <c r="AC7" s="4" t="str">
+      <c r="AC7" s="5" t="str">
         <f>Sum(AC2:AC6)</f>
       </c>
-      <c r="AD7" s="4" t="str">
+      <c r="AD7" s="5" t="str">
         <f>Sum(AD2:AD6)</f>
       </c>
-      <c r="AE7" s="4" t="str">
+      <c r="AE7" s="5" t="str">
         <f>Sum(AE2:AE6)</f>
       </c>
-      <c r="AF7" s="4" t="str">
+      <c r="AF7" s="5" t="str">
         <f>Sum(AF2:AF6)</f>
       </c>
-      <c r="AG7" s="4" t="str">
+      <c r="AG7" s="5" t="str">
         <f>Sum(AG2:AG6)</f>
       </c>
-      <c r="AH7" s="4" t="str">
+      <c r="AH7" s="5" t="str">
         <f>Sum(AH2:AH6)</f>
       </c>
-      <c r="AI7" s="4" t="str">
+      <c r="AI7" s="5" t="str">
         <f>Sum(AI2:AI6)</f>
       </c>
-      <c r="AJ7" s="4" t="str">
+      <c r="AJ7" s="5" t="str">
         <f>Sum(AJ2:AJ6)</f>
       </c>
-      <c r="AK7" s="4"/>
+      <c r="AK7" s="5"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -3262,57 +3264,57 @@
       <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4" t="n">
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5" t="n">
         <v>1769064.33916959</v>
       </c>
-      <c r="T11" s="4" t="n">
+      <c r="T11" s="5" t="n">
         <v>56058.4820906056</v>
       </c>
-      <c r="U11" s="4" t="n">
+      <c r="U11" s="5" t="n">
         <v>108258.855153236</v>
       </c>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4" t="n">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5" t="n">
         <v>7208117.00133123</v>
       </c>
-      <c r="Z11" s="4" t="n">
+      <c r="Z11" s="5" t="n">
         <v>13317421.853535</v>
       </c>
-      <c r="AA11" s="4" t="n">
+      <c r="AA11" s="5" t="n">
         <v>10293981.784088</v>
       </c>
-      <c r="AB11" s="4" t="n">
+      <c r="AB11" s="5" t="n">
         <v>11417728.3601686</v>
       </c>
-      <c r="AC11" s="4" t="n">
+      <c r="AC11" s="5" t="n">
         <v>10701965.9154998</v>
       </c>
-      <c r="AD11" s="4" t="n">
+      <c r="AD11" s="5" t="n">
         <v>10804250.5517965</v>
       </c>
-      <c r="AE11" s="4" t="n">
+      <c r="AE11" s="5" t="n">
         <v>12465754.167836</v>
       </c>
-      <c r="AF11" s="4" t="n">
+      <c r="AF11" s="5" t="n">
         <v>553948.301198789</v>
       </c>
-      <c r="AG11" s="4" t="n">
+      <c r="AG11" s="5" t="n">
         <v>12025110.4076716</v>
       </c>
-      <c r="AH11" s="4" t="n">
+      <c r="AH11" s="5" t="n">
         <v>3636045.22363776</v>
       </c>
-      <c r="AI11" s="4" t="n">
+      <c r="AI11" s="5" t="n">
         <v>2313314</v>
       </c>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -3327,67 +3329,67 @@
       <c r="N12" t="s">
         <v>48</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4" t="n">
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5" t="n">
         <v>39733.4986704183</v>
       </c>
-      <c r="S12" s="4" t="n">
+      <c r="S12" s="5" t="n">
         <v>46381786.301987</v>
       </c>
-      <c r="T12" s="4" t="n">
+      <c r="T12" s="5" t="n">
         <v>118142549.343056</v>
       </c>
-      <c r="U12" s="4" t="n">
+      <c r="U12" s="5" t="n">
         <v>129793976.196295</v>
       </c>
-      <c r="V12" s="4" t="n">
+      <c r="V12" s="5" t="n">
         <v>117185768.23752</v>
       </c>
-      <c r="W12" s="4" t="n">
+      <c r="W12" s="5" t="n">
         <v>107758906.277245</v>
       </c>
-      <c r="X12" s="4" t="n">
+      <c r="X12" s="5" t="n">
         <v>84757445.2434694</v>
       </c>
-      <c r="Y12" s="4" t="n">
+      <c r="Y12" s="5" t="n">
         <v>84936478.7071476</v>
       </c>
-      <c r="Z12" s="4" t="n">
+      <c r="Z12" s="5" t="n">
         <v>108813159.709828</v>
       </c>
-      <c r="AA12" s="4" t="n">
+      <c r="AA12" s="5" t="n">
         <v>85403157.8340351</v>
       </c>
-      <c r="AB12" s="4" t="n">
+      <c r="AB12" s="5" t="n">
         <v>51319942.5515789</v>
       </c>
-      <c r="AC12" s="4" t="n">
+      <c r="AC12" s="5" t="n">
         <v>64693891.7553821</v>
       </c>
-      <c r="AD12" s="4" t="n">
+      <c r="AD12" s="5" t="n">
         <v>62585446.5561825</v>
       </c>
-      <c r="AE12" s="4" t="n">
+      <c r="AE12" s="5" t="n">
         <v>51972963.2038047</v>
       </c>
-      <c r="AF12" s="4" t="n">
+      <c r="AF12" s="5" t="n">
         <v>71929566.9939025</v>
       </c>
-      <c r="AG12" s="4" t="n">
+      <c r="AG12" s="5" t="n">
         <v>51453592.8017225</v>
       </c>
-      <c r="AH12" s="4" t="n">
+      <c r="AH12" s="5" t="n">
         <v>132931599.613165</v>
       </c>
-      <c r="AI12" s="4" t="n">
+      <c r="AI12" s="5" t="n">
         <v>58087787.5205</v>
       </c>
-      <c r="AJ12" s="4" t="n">
+      <c r="AJ12" s="5" t="n">
         <v>-103373.683645059</v>
       </c>
-      <c r="AK12" s="4"/>
+      <c r="AK12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -3402,41 +3404,41 @@
       <c r="N13" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4" t="n">
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5" t="n">
         <v>63621003.3203568</v>
       </c>
-      <c r="AF13" s="4" t="n">
+      <c r="AF13" s="5" t="n">
         <v>55791811.6670846</v>
       </c>
-      <c r="AG13" s="4" t="n">
+      <c r="AG13" s="5" t="n">
         <v>57029577.8451959</v>
       </c>
-      <c r="AH13" s="4" t="n">
+      <c r="AH13" s="5" t="n">
         <v>50906945.2766496</v>
       </c>
-      <c r="AI13" s="4" t="n">
+      <c r="AI13" s="5" t="n">
         <v>50617666</v>
       </c>
-      <c r="AJ13" s="4" t="n">
+      <c r="AJ13" s="5" t="n">
         <v>81909643.0554762</v>
       </c>
-      <c r="AK13" s="4"/>
+      <c r="AK13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -3451,53 +3453,53 @@
       <c r="N14" t="s">
         <v>51</v>
       </c>
-      <c r="O14" s="4" t="n">
+      <c r="O14" s="5" t="n">
         <v>8686607.55701442</v>
       </c>
-      <c r="P14" s="4" t="n">
+      <c r="P14" s="5" t="n">
         <v>10805974.4632533</v>
       </c>
-      <c r="Q14" s="4" t="n">
+      <c r="Q14" s="5" t="n">
         <v>5193351.53094354</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4" t="n">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="n">
         <v>24032.364466625</v>
       </c>
-      <c r="X14" s="4" t="n">
+      <c r="X14" s="5" t="n">
         <v>9224490.71826521</v>
       </c>
-      <c r="Y14" s="4" t="n">
+      <c r="Y14" s="5" t="n">
         <v>9244390.8323337</v>
       </c>
-      <c r="Z14" s="4" t="n">
+      <c r="Z14" s="5" t="n">
         <v>14672982.1372944</v>
       </c>
-      <c r="AA14" s="4" t="n">
+      <c r="AA14" s="5" t="n">
         <v>4832317.8738435</v>
       </c>
-      <c r="AB14" s="4" t="n">
+      <c r="AB14" s="5" t="n">
         <v>3399650.7427597</v>
       </c>
-      <c r="AC14" s="4" t="n">
+      <c r="AC14" s="5" t="n">
         <v>856.321050164499</v>
       </c>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4" t="n">
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5" t="n">
         <v>44704.6211776268</v>
       </c>
-      <c r="AI14" s="4" t="n">
+      <c r="AI14" s="5" t="n">
         <v>262821.6563</v>
       </c>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -3512,45 +3514,45 @@
       <c r="N15" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4" t="n">
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5" t="n">
         <v>-1430.62580055235</v>
       </c>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4" t="n">
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5" t="n">
         <v>-1315817.47938362</v>
       </c>
-      <c r="AE15" s="4" t="n">
+      <c r="AE15" s="5" t="n">
         <v>-216221.544037577</v>
       </c>
-      <c r="AF15" s="4" t="n">
+      <c r="AF15" s="5" t="n">
         <v>-841315.398079471</v>
       </c>
-      <c r="AG15" s="4" t="n">
+      <c r="AG15" s="5" t="n">
         <v>-1212428.43162334</v>
       </c>
-      <c r="AH15" s="4" t="n">
+      <c r="AH15" s="5" t="n">
         <v>-224845.395359392</v>
       </c>
-      <c r="AI15" s="4" t="n">
+      <c r="AI15" s="5" t="n">
         <v>-88979.19</v>
       </c>
-      <c r="AJ15" s="4" t="n">
+      <c r="AJ15" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="AK15" s="4"/>
+      <c r="AK15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -3559,29 +3561,29 @@
       <c r="B16" t="str">
         <f>N16</f>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
+++ b/Output/PBL/Platform/Ordnance_and_Missiles/DoD_Ordnance_and_Missiles_Contracts.xlsx
@@ -178,11 +178,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="178" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -220,11 +220,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
